--- a/rawconfig/player.xlsx
+++ b/rawconfig/player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,21 +71,6 @@
     <t>scale_ratio</t>
   </si>
   <si>
-    <t>skill_0_id</t>
-  </si>
-  <si>
-    <t>skill_1_id</t>
-  </si>
-  <si>
-    <t>skill_2_id</t>
-  </si>
-  <si>
-    <t>skill_3_id</t>
-  </si>
-  <si>
-    <t>skill_4_id</t>
-  </si>
-  <si>
     <t>strength</t>
   </si>
   <si>
@@ -276,6 +261,26 @@
   </si>
   <si>
     <t>射手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10000,11000,12000,13000,14000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,174 +645,164 @@
     <col min="18" max="18" width="11.75" customWidth="1"/>
     <col min="21" max="21" width="16.75" customWidth="1"/>
     <col min="22" max="22" width="11.875" customWidth="1"/>
-    <col min="23" max="23" width="11.625" customWidth="1"/>
-    <col min="28" max="28" width="11.125" customWidth="1"/>
-    <col min="29" max="29" width="11.625" customWidth="1"/>
+    <col min="24" max="24" width="11.125" customWidth="1"/>
+    <col min="25" max="25" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -828,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -849,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q3" t="s">
         <v>14</v>
       </c>
       <c r="R3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S3" t="s">
         <v>15</v>
@@ -864,39 +859,27 @@
         <v>16</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V3" t="s">
         <v>17</v>
       </c>
       <c r="W3" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" t="s">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -917,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -944,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S4" t="s">
         <v>15</v>
@@ -953,34 +936,22 @@
         <v>16</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V4" t="s">
         <v>17</v>
       </c>
       <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
         <v>18</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>100000</v>
       </c>
@@ -988,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>29</v>
@@ -1012,7 +983,7 @@
         <v>400</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O5">
         <v>650</v>
@@ -1030,37 +1001,25 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="U5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5">
+        <v>22</v>
+      </c>
+      <c r="Y5">
         <v>10000</v>
       </c>
-      <c r="X5">
-        <v>11000</v>
-      </c>
-      <c r="Y5">
-        <v>12000</v>
-      </c>
-      <c r="Z5">
-        <v>13000</v>
-      </c>
-      <c r="AA5">
-        <v>14000</v>
-      </c>
-      <c r="AB5">
-        <v>22</v>
-      </c>
-      <c r="AC5">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>100001</v>
       </c>
@@ -1068,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -1092,7 +1051,7 @@
         <v>800</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O6">
         <v>230</v>
@@ -1110,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U6" t="s">
         <v>1</v>
@@ -1118,29 +1077,14 @@
       <c r="V6">
         <v>0.80000001192092896</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>15</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>100002</v>
       </c>
@@ -1148,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -1172,7 +1116,7 @@
         <v>400</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O7">
         <v>200</v>
@@ -1190,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U7" t="s">
         <v>1</v>
@@ -1198,25 +1142,10 @@
       <c r="V7">
         <v>0.5</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>13</v>
-      </c>
-      <c r="AC7">
         <v>0</v>
       </c>
     </row>
